--- a/Assets/Levels/Level3/Meteors.xlsx
+++ b/Assets/Levels/Level3/Meteors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\Level3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E2D18C-1BC9-4027-AC2E-BF7EC78F88D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BECB8E-EE33-4CDF-8C8A-80A04B1575F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{543AD0B1-5B18-4FA5-8003-7C9D3464DA33}"/>
   </bookViews>
@@ -82,8 +82,8 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Zarez" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
         <v>200</v>
@@ -420,12 +420,11 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>+A1+100</f>
-        <v>100</v>
+        <f>+A1+2</f>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <f>+B1+100</f>
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>400</v>
@@ -433,12 +432,11 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A20" si="0">+A2+100</f>
-        <v>200</v>
+        <f t="shared" ref="A3:A20" si="0">+A2+2</f>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B7" si="1">+B2+100</f>
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>250</v>
@@ -447,11 +445,10 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>500</v>
@@ -460,11 +457,10 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>300</v>
@@ -473,11 +469,10 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>350</v>
@@ -486,11 +481,10 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="1"/>
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>475</v>
@@ -499,10 +493,10 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>225</v>
@@ -511,11 +505,10 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ref="B9:B20" si="2">+B8+100</f>
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>200</v>
@@ -524,11 +517,10 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>550</v>
@@ -537,11 +529,10 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>475</v>
@@ -550,11 +541,10 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="2"/>
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>275</v>
@@ -563,11 +553,10 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>300</v>
@@ -576,11 +565,10 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="2"/>
-        <v>700</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>350</v>
@@ -589,10 +577,10 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
         <v>475</v>
@@ -601,11 +589,10 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>250</v>
@@ -614,11 +601,10 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>350</v>
@@ -627,11 +613,10 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>450</v>
@@ -640,11 +625,10 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="2"/>
-        <v>500</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1">
         <v>200</v>
@@ -653,11 +637,10 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
         <v>500</v>
